--- a/biology/Botanique/Ardisia_crenata/Ardisia_crenata.xlsx
+++ b/biology/Botanique/Ardisia_crenata/Ardisia_crenata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardisia crenata, l'Ardisie crénelée ou Baie corail, est une espèce de plantes à fleurs dicotylédones de la famille des Primulaceae, sous-famille des Myrsinoideae, originaire d'Asie de l'Est et du Sud. C'est une plante de sous-bois qui pousse dans des régions tropicales et subtropicales. Cultivée, elle est généralement plantée à l'extérieur.
 </t>
@@ -511,11 +523,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nom scientifique valide : Ardisia crenata Sims, 1818 [5] ;
-Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Baie corail[6],[7], Ardisie crénelée[6] ;
-Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : Bois de Noël[6], Arbre de Noël[6].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nom scientifique valide : Ardisia crenata Sims, 1818  ;
+Noms vulgaires (vulgarisation scientifique) recommandés ou typiques en français : Baie corail Ardisie crénelée ;
+Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : Bois de Noël, Arbre de Noël.</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vue d'ensemble.
@@ -582,10 +598,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite en 1818 par le botaniste John Sims (1749-1831)[8]. L'épithète spécifique crenata signifie « festonnée »[9], par référence à la bordure crénelée des feuilles.
-En classification phylogénétique APG III (2009)[10], le genre Ardisia est assigné à la famille des Primulaceae. En classification classique de Cronquist (1981)[11] et en classification phylogénétique APG II (2003)[12], il était assigné aux Myrsinaceae.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1818 par le botaniste John Sims (1749-1831). L'épithète spécifique crenata signifie « festonnée », par référence à la bordure crénelée des feuilles.
+En classification phylogénétique APG III (2009), le genre Ardisia est assigné à la famille des Primulaceae. En classification classique de Cronquist (1981) et en classification phylogénétique APG II (2003), il était assigné aux Myrsinaceae.
 </t>
         </is>
       </c>
@@ -614,12 +632,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire d'Asie[4].
-Caractère envahissant
-Appréciée pour ces baies caractéristiques et décoratives, elle a été largement diffusée dans le monde comme plante ornementale. Elle est devenue envahissante dans diverses zones géographiques : Etats-Unis, Australie et un grand nombre d'îles du Pacifique. La sélection au fil du temps de spécimens produisant un grand nombre de baies a d'ailleurs aggravé ce caractère envahissant[13].
-Comme elle est envahissante en Nouvelle-Calédonie, le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat[14].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire d'Asie.
 </t>
         </is>
       </c>
@@ -645,22 +662,62 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Répartition géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractère envahissant</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Appréciée pour ces baies caractéristiques et décoratives, elle a été largement diffusée dans le monde comme plante ornementale. Elle est devenue envahissante dans diverses zones géographiques : Etats-Unis, Australie et un grand nombre d'îles du Pacifique. La sélection au fil du temps de spécimens produisant un grand nombre de baies a d'ailleurs aggravé ce caractère envahissant.
+Comme elle est envahissante en Nouvelle-Calédonie, le Code de l'environnement de la Province Sud interdit l’introduction dans la nature de cette espèce ainsi que sa production, son transport, son utilisation, son colportage, sa cession, sa mise en vente, sa vente ou son achat.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ardisia_crenata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ardisia_crenata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (17 novembre 2017)[15] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (17 novembre 2017) :
 sous-espèce Ardisia crenata subsp. crassinervosa
 sous-espèce Ardisia crenata subsp. crenata
 sous-espèce Ardisia crenata subsp. mouretii
 sous-espèce Ardisia crenata subsp. obtusifolia
-Selon NCBI  (17 novembre 2017)[16] :
+Selon NCBI  (17 novembre 2017) :
 variété Ardisia crenata var. bicolor
-Selon The Plant List            (17 novembre 2017)[3] :
+Selon The Plant List            (17 novembre 2017) :
 sous-espèce Ardisia crenata subsp. crassinervosa (E.Walker) C.M.Hu &amp; J.E.Vidal
 variété Ardisia crenata var. bicolor (E.Walker) C.Y.Wu &amp; C.Chen
-Selon Tropicos                                           (17 novembre 2017)[17] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (17 novembre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèce Ardisia crenata subsp. crassinervosa (E. Walker) C.M. Hu &amp; J.E. Vidal
 sous-espèce Ardisia crenata subsp. crenata
 sous-espèce Ardisia crenata subsp. mouretii (Pit.) C.M. Hu &amp; J.E. Vidal
